--- a/po_analysis_by_asin/B0CPQML6TS_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQML6TS_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>33</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>36</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>108</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>12</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>12</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>12</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>72</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>132</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>12</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>12</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>180</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>36</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>204</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>12</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>12</v>

--- a/po_analysis_by_asin/B0CPQML6TS_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQML6TS_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -565,7 +566,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -607,6 +608,313 @@
       </c>
       <c r="B6" t="n">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>46</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-10.8690710961021</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100.8796726880249</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>46</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-9.639763869037845</v>
+      </c>
+      <c r="D3" t="n">
+        <v>101.942514608143</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>45</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5.005258560433161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>97.76301612160817</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>45</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-8.243525256208205</v>
+      </c>
+      <c r="D5" t="n">
+        <v>99.50669361470767</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-10.81846799365614</v>
+      </c>
+      <c r="D6" t="n">
+        <v>91.96940099605162</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>39</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-12.25248015504748</v>
+      </c>
+      <c r="D7" t="n">
+        <v>89.93098222800855</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>39</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-12.29364166340285</v>
+      </c>
+      <c r="D8" t="n">
+        <v>94.89612581305046</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>39</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-14.85666397332163</v>
+      </c>
+      <c r="D9" t="n">
+        <v>98.05174908573252</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>38</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-14.93424200249412</v>
+      </c>
+      <c r="D10" t="n">
+        <v>95.45335346480927</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>34</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-18.00261270844626</v>
+      </c>
+      <c r="D11" t="n">
+        <v>90.33194471113697</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>33</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-20.8286361953842</v>
+      </c>
+      <c r="D12" t="n">
+        <v>85.8716137929197</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>33</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-20.17249051616255</v>
+      </c>
+      <c r="D13" t="n">
+        <v>85.96647637065456</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>33</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-20.07784735422978</v>
+      </c>
+      <c r="D14" t="n">
+        <v>88.29860204570144</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>32</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-21.53242398993929</v>
+      </c>
+      <c r="D15" t="n">
+        <v>86.77693054058497</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>32</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-23.41375107907065</v>
+      </c>
+      <c r="D16" t="n">
+        <v>83.74532422571664</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>32</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-19.80311387436619</v>
+      </c>
+      <c r="D17" t="n">
+        <v>83.56288917630228</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>31</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-23.02229689515022</v>
+      </c>
+      <c r="D18" t="n">
+        <v>84.33864863661026</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>31</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-22.40046065588819</v>
+      </c>
+      <c r="D19" t="n">
+        <v>82.6894431174577</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>31</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-21.95187791734123</v>
+      </c>
+      <c r="D20" t="n">
+        <v>84.11737410264078</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CPQML6TS_po_data.xlsx
+++ b/po_analysis_by_asin/B0CPQML6TS_po_data.xlsx
@@ -621,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,16 +640,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -658,12 +648,6 @@
       <c r="B2" t="n">
         <v>46</v>
       </c>
-      <c r="C2" t="n">
-        <v>-10.8690710961021</v>
-      </c>
-      <c r="D2" t="n">
-        <v>100.8796726880249</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -672,12 +656,6 @@
       <c r="B3" t="n">
         <v>46</v>
       </c>
-      <c r="C3" t="n">
-        <v>-9.639763869037845</v>
-      </c>
-      <c r="D3" t="n">
-        <v>101.942514608143</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -686,12 +664,6 @@
       <c r="B4" t="n">
         <v>45</v>
       </c>
-      <c r="C4" t="n">
-        <v>-5.005258560433161</v>
-      </c>
-      <c r="D4" t="n">
-        <v>97.76301612160817</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -700,12 +672,6 @@
       <c r="B5" t="n">
         <v>45</v>
       </c>
-      <c r="C5" t="n">
-        <v>-8.243525256208205</v>
-      </c>
-      <c r="D5" t="n">
-        <v>99.50669361470767</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -714,12 +680,6 @@
       <c r="B6" t="n">
         <v>40</v>
       </c>
-      <c r="C6" t="n">
-        <v>-10.81846799365614</v>
-      </c>
-      <c r="D6" t="n">
-        <v>91.96940099605162</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -728,12 +688,6 @@
       <c r="B7" t="n">
         <v>39</v>
       </c>
-      <c r="C7" t="n">
-        <v>-12.25248015504748</v>
-      </c>
-      <c r="D7" t="n">
-        <v>89.93098222800855</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -742,12 +696,6 @@
       <c r="B8" t="n">
         <v>39</v>
       </c>
-      <c r="C8" t="n">
-        <v>-12.29364166340285</v>
-      </c>
-      <c r="D8" t="n">
-        <v>94.89612581305046</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -756,12 +704,6 @@
       <c r="B9" t="n">
         <v>39</v>
       </c>
-      <c r="C9" t="n">
-        <v>-14.85666397332163</v>
-      </c>
-      <c r="D9" t="n">
-        <v>98.05174908573252</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -770,12 +712,6 @@
       <c r="B10" t="n">
         <v>38</v>
       </c>
-      <c r="C10" t="n">
-        <v>-14.93424200249412</v>
-      </c>
-      <c r="D10" t="n">
-        <v>95.45335346480927</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -784,12 +720,6 @@
       <c r="B11" t="n">
         <v>34</v>
       </c>
-      <c r="C11" t="n">
-        <v>-18.00261270844626</v>
-      </c>
-      <c r="D11" t="n">
-        <v>90.33194471113697</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -798,12 +728,6 @@
       <c r="B12" t="n">
         <v>33</v>
       </c>
-      <c r="C12" t="n">
-        <v>-20.8286361953842</v>
-      </c>
-      <c r="D12" t="n">
-        <v>85.8716137929197</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -812,12 +736,6 @@
       <c r="B13" t="n">
         <v>33</v>
       </c>
-      <c r="C13" t="n">
-        <v>-20.17249051616255</v>
-      </c>
-      <c r="D13" t="n">
-        <v>85.96647637065456</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -826,12 +744,6 @@
       <c r="B14" t="n">
         <v>33</v>
       </c>
-      <c r="C14" t="n">
-        <v>-20.07784735422978</v>
-      </c>
-      <c r="D14" t="n">
-        <v>88.29860204570144</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -840,12 +752,6 @@
       <c r="B15" t="n">
         <v>32</v>
       </c>
-      <c r="C15" t="n">
-        <v>-21.53242398993929</v>
-      </c>
-      <c r="D15" t="n">
-        <v>86.77693054058497</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -854,12 +760,6 @@
       <c r="B16" t="n">
         <v>32</v>
       </c>
-      <c r="C16" t="n">
-        <v>-23.41375107907065</v>
-      </c>
-      <c r="D16" t="n">
-        <v>83.74532422571664</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -868,12 +768,6 @@
       <c r="B17" t="n">
         <v>32</v>
       </c>
-      <c r="C17" t="n">
-        <v>-19.80311387436619</v>
-      </c>
-      <c r="D17" t="n">
-        <v>83.56288917630228</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -882,12 +776,6 @@
       <c r="B18" t="n">
         <v>31</v>
       </c>
-      <c r="C18" t="n">
-        <v>-23.02229689515022</v>
-      </c>
-      <c r="D18" t="n">
-        <v>84.33864863661026</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -896,12 +784,6 @@
       <c r="B19" t="n">
         <v>31</v>
       </c>
-      <c r="C19" t="n">
-        <v>-22.40046065588819</v>
-      </c>
-      <c r="D19" t="n">
-        <v>82.6894431174577</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -909,12 +791,6 @@
       </c>
       <c r="B20" t="n">
         <v>31</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-21.95187791734123</v>
-      </c>
-      <c r="D20" t="n">
-        <v>84.11737410264078</v>
       </c>
     </row>
   </sheetData>
